--- a/EnemyResourceDrop.xlsx
+++ b/EnemyResourceDrop.xlsx
@@ -137,12 +137,12 @@
     <t>Rathuum Broadcaster</t>
   </si>
   <si>
+    <t>Kuva Trooper</t>
+  </si>
+  <si>
     <t>Corrupted Heavy Gunner</t>
   </si>
   <si>
-    <t>Kuva Trooper</t>
-  </si>
-  <si>
     <t>Kuva Flameblade</t>
   </si>
   <si>
@@ -218,15 +218,15 @@
     <t>Sapping Osprey</t>
   </si>
   <si>
+    <t>Ogma Elite</t>
+  </si>
+  <si>
+    <t>0.125</t>
+  </si>
+  <si>
     <t>Roller</t>
   </si>
   <si>
-    <t>Ogma Elite</t>
-  </si>
-  <si>
-    <t>0.125</t>
-  </si>
-  <si>
     <t>Arid Butcher</t>
   </si>
   <si>
@@ -338,24 +338,24 @@
     <t>Terra Moa</t>
   </si>
   <si>
+    <t>Arcane Boiler</t>
+  </si>
+  <si>
     <t>Orphid Husks</t>
   </si>
   <si>
-    <t>Arcane Boiler</t>
-  </si>
-  <si>
     <t>Gyre Hyena</t>
   </si>
   <si>
+    <t>Gox</t>
+  </si>
+  <si>
     <t>Hyena Pb</t>
   </si>
   <si>
     <t>Volatile Runner</t>
   </si>
   <si>
-    <t>Gox</t>
-  </si>
-  <si>
     <t>Scavenger Drone</t>
   </si>
   <si>
@@ -404,12 +404,12 @@
     <t>Ancient Disruptor</t>
   </si>
   <si>
+    <t>Plains Commander</t>
+  </si>
+  <si>
     <t>Infested Corpus</t>
   </si>
   <si>
-    <t>Plains Commander</t>
-  </si>
-  <si>
     <t>General Sargas Ruk</t>
   </si>
   <si>
@@ -434,6 +434,9 @@
     <t>Carrier</t>
   </si>
   <si>
+    <t>Decaying Conculyst</t>
+  </si>
+  <si>
     <t>Shik Tal</t>
   </si>
   <si>
@@ -443,9 +446,6 @@
     <t>Brakk Barrel</t>
   </si>
   <si>
-    <t>Decaying Conculyst</t>
-  </si>
-  <si>
     <t>Kuva Hellion</t>
   </si>
   <si>
@@ -500,12 +500,12 @@
     <t>Terra Manker</t>
   </si>
   <si>
+    <t>Tusk Command Dargyn</t>
+  </si>
+  <si>
     <t>Nox</t>
   </si>
   <si>
-    <t>Tusk Command Dargyn</t>
-  </si>
-  <si>
     <t>Councilor Vay Hek</t>
   </si>
   <si>
@@ -560,18 +560,18 @@
     <t>Quanta Ranger</t>
   </si>
   <si>
+    <t>Tusk Mortar Bombard</t>
+  </si>
+  <si>
     <t>Arbitration Shield Drone</t>
   </si>
   <si>
-    <t>Tusk Mortar Bombard</t>
+    <t>Nemes</t>
   </si>
   <si>
     <t>Moa</t>
   </si>
   <si>
-    <t>Nemes</t>
-  </si>
-  <si>
     <t>Tusk Flameblade</t>
   </si>
   <si>
@@ -749,21 +749,21 @@
     <t>Kuva Scorpion</t>
   </si>
   <si>
+    <t>Frontier Bailiff</t>
+  </si>
+  <si>
     <t>Vay Hek Terra Frame</t>
   </si>
   <si>
     <t>Trooper</t>
   </si>
   <si>
-    <t>Frontier Bailiff</t>
+    <t>Arid Trooper</t>
   </si>
   <si>
     <t>Bailiff</t>
   </si>
   <si>
-    <t>Arid Trooper</t>
-  </si>
-  <si>
     <t>Frontier Regulator</t>
   </si>
   <si>
@@ -824,15 +824,15 @@
     <t>Kuaka Spinal Claw</t>
   </si>
   <si>
+    <t>Terra Elite Provisor</t>
+  </si>
+  <si>
+    <t>Sniper Crewman</t>
+  </si>
+  <si>
     <t>Nullifier Crewman</t>
   </si>
   <si>
-    <t>Terra Elite Provisor</t>
-  </si>
-  <si>
-    <t>Sniper Crewman</t>
-  </si>
-  <si>
     <t>Corrupted Lancer</t>
   </si>
   <si>
@@ -866,15 +866,18 @@
     <t>Elite Frontier Lancer</t>
   </si>
   <si>
+    <t>Nauseous Void Shade</t>
+  </si>
+  <si>
     <t>Kuva Lancer</t>
   </si>
   <si>
-    <t>Nauseous Void Shade</t>
-  </si>
-  <si>
     <t>Kuva Powerclaw</t>
   </si>
   <si>
+    <t>Kuva Hyekka Master</t>
+  </si>
+  <si>
     <t>Bailiff Defector</t>
   </si>
   <si>
@@ -887,9 +890,6 @@
     <t>Detron Barrel</t>
   </si>
   <si>
-    <t>Kuva Hyekka Master</t>
-  </si>
-  <si>
     <t>Frontier Lancer</t>
   </si>
   <si>
@@ -923,12 +923,12 @@
     <t>Corpus Sniper Target</t>
   </si>
   <si>
+    <t>Frontier Seeker</t>
+  </si>
+  <si>
     <t>Ambulas</t>
   </si>
   <si>
-    <t>Frontier Seeker</t>
-  </si>
-  <si>
     <t>Lt Lech Kril</t>
   </si>
   <si>
@@ -938,15 +938,15 @@
     <t>Fusion Moa</t>
   </si>
   <si>
+    <t>Jordas Golem</t>
+  </si>
+  <si>
+    <t>Sentient Research Director</t>
+  </si>
+  <si>
     <t>Corrupted Nullifier</t>
   </si>
   <si>
-    <t>Jordas Golem</t>
-  </si>
-  <si>
-    <t>Sentient Research Director</t>
-  </si>
-  <si>
     <t>Terra Plasmor Crewman</t>
   </si>
   <si>
@@ -974,12 +974,12 @@
     <t>Toxic Crawler</t>
   </si>
   <si>
+    <t>Fog Scrambus</t>
+  </si>
+  <si>
     <t>Grineer Manic</t>
   </si>
   <si>
-    <t>Fog Scrambus</t>
-  </si>
-  <si>
     <t>Hyena Ln2</t>
   </si>
   <si>
@@ -1004,18 +1004,18 @@
     <t>Raptor Ns</t>
   </si>
   <si>
+    <t>Hyekka Master</t>
+  </si>
+  <si>
+    <t>Terra Attack Drone</t>
+  </si>
+  <si>
     <t>Leekter</t>
   </si>
   <si>
     <t>Brakk Receiver</t>
   </si>
   <si>
-    <t>Hyekka Master</t>
-  </si>
-  <si>
-    <t>Terra Attack Drone</t>
-  </si>
-  <si>
     <t>Tusk Dargyn</t>
   </si>
   <si>
@@ -1025,21 +1025,21 @@
     <t>Kavat</t>
   </si>
   <si>
+    <t>Cannon Battery</t>
+  </si>
+  <si>
     <t>Eidolon Vomvalyst</t>
   </si>
   <si>
-    <t>Cannon Battery</t>
-  </si>
-  <si>
     <t>Terra Anti Moa</t>
   </si>
   <si>
+    <t>Corpus Supra Target</t>
+  </si>
+  <si>
     <t>Lobber Crawler</t>
   </si>
   <si>
-    <t>Corpus Supra Target</t>
-  </si>
-  <si>
     <t>Grineer Warden</t>
   </si>
   <si>
@@ -1049,12 +1049,12 @@
     <t>Regulator</t>
   </si>
   <si>
+    <t>Kuva Drahk Master</t>
+  </si>
+  <si>
     <t>Orokin Spectator</t>
   </si>
   <si>
-    <t>Kuva Drahk Master</t>
-  </si>
-  <si>
     <t>Penta Ranger</t>
   </si>
   <si>
@@ -1076,12 +1076,12 @@
     <t>Terra Turret Osprey</t>
   </si>
   <si>
+    <t>Corpus Cestra Target</t>
+  </si>
+  <si>
     <t>Corrupted Ancient</t>
   </si>
   <si>
-    <t>Corpus Cestra Target</t>
-  </si>
-  <si>
     <t>Ancient Healer</t>
   </si>
   <si>
@@ -1106,12 +1106,12 @@
     <t>Ghoul Expired</t>
   </si>
   <si>
+    <t>Tusk Elite Lancer</t>
+  </si>
+  <si>
     <t>Leech Osprey</t>
   </si>
   <si>
-    <t>Tusk Elite Lancer</t>
-  </si>
-  <si>
     <t>Kuva Drahk</t>
   </si>
   <si>
@@ -1139,10 +1139,10 @@
     <t>Ancient Infested</t>
   </si>
   <si>
+    <t>Hyena Th</t>
+  </si>
+  <si>
     <t>Vem Tabook</t>
-  </si>
-  <si>
-    <t>Hyena Th</t>
   </si>
   <si>
     <t>Kuaka</t>
@@ -1859,7 +1859,7 @@
         <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
@@ -1867,13 +1867,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
         <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
@@ -2459,19 +2459,10 @@
         <v>21</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D78" t="s">
-        <v>32</v>
-      </c>
-      <c r="E78" t="s">
-        <v>33</v>
-      </c>
-      <c r="F78" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79">
@@ -2482,10 +2473,19 @@
         <v>21</v>
       </c>
       <c r="C79" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="E79" t="s">
+        <v>33</v>
+      </c>
+      <c r="F79" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="80">
@@ -2734,7 +2734,7 @@
         <v>21</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D97" t="s">
         <v>15</v>
@@ -2748,7 +2748,7 @@
         <v>21</v>
       </c>
       <c r="C98" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D98" t="s">
         <v>15</v>
@@ -2898,45 +2898,45 @@
         <v>140</v>
       </c>
       <c r="B107" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="C107" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D107" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="E107" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="F107" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G107" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>141</v>
+      </c>
+      <c r="B108" t="s">
+        <v>142</v>
+      </c>
+      <c r="C108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" t="s">
+        <v>80</v>
+      </c>
+      <c r="E108" t="s">
         <v>143</v>
       </c>
-      <c r="B108" t="s">
-        <v>21</v>
-      </c>
-      <c r="C108" t="s">
-        <v>60</v>
-      </c>
-      <c r="D108" t="s">
-        <v>32</v>
-      </c>
-      <c r="E108" t="s">
-        <v>33</v>
-      </c>
       <c r="F108" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="109">
@@ -3512,10 +3512,10 @@
         <v>184</v>
       </c>
       <c r="B147" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C147" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D147" t="s">
         <v>15</v>
@@ -3526,10 +3526,10 @@
         <v>185</v>
       </c>
       <c r="B148" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C148" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D148" t="s">
         <v>15</v>
@@ -4389,19 +4389,10 @@
         <v>21</v>
       </c>
       <c r="C203" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D203" t="s">
-        <v>32</v>
-      </c>
-      <c r="E203" t="s">
-        <v>33</v>
-      </c>
-      <c r="F203" t="s">
-        <v>15</v>
-      </c>
-      <c r="G203" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="204">
@@ -4412,10 +4403,19 @@
         <v>21</v>
       </c>
       <c r="C204" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D204" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="E204" t="s">
+        <v>33</v>
+      </c>
+      <c r="F204" t="s">
+        <v>15</v>
+      </c>
+      <c r="G204" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="205">
@@ -4752,7 +4752,7 @@
         <v>21</v>
       </c>
       <c r="C227" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D227" t="s">
         <v>15</v>
@@ -4766,7 +4766,7 @@
         <v>21</v>
       </c>
       <c r="C228" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D228" t="s">
         <v>15</v>
@@ -5000,36 +5000,36 @@
         <v>288</v>
       </c>
       <c r="B243" t="s">
-        <v>289</v>
+        <v>21</v>
       </c>
       <c r="C243" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D243" t="s">
-        <v>60</v>
-      </c>
-      <c r="E243" t="s">
-        <v>290</v>
-      </c>
-      <c r="F243" t="s">
-        <v>15</v>
-      </c>
-      <c r="G243" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
+        <v>289</v>
+      </c>
+      <c r="B244" t="s">
+        <v>290</v>
+      </c>
+      <c r="C244" t="s">
+        <v>15</v>
+      </c>
+      <c r="D244" t="s">
+        <v>60</v>
+      </c>
+      <c r="E244" t="s">
         <v>291</v>
       </c>
-      <c r="B244" t="s">
-        <v>21</v>
-      </c>
-      <c r="C244" t="s">
-        <v>22</v>
-      </c>
-      <c r="D244" t="s">
-        <v>15</v>
+      <c r="F244" t="s">
+        <v>15</v>
+      </c>
+      <c r="G244" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="245">
@@ -5203,19 +5203,10 @@
         <v>21</v>
       </c>
       <c r="C256" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="D256" t="s">
-        <v>32</v>
-      </c>
-      <c r="E256" t="s">
-        <v>33</v>
-      </c>
-      <c r="F256" t="s">
-        <v>60</v>
-      </c>
-      <c r="G256" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="257">
@@ -5226,10 +5217,19 @@
         <v>21</v>
       </c>
       <c r="C257" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D257" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="E257" t="s">
+        <v>33</v>
+      </c>
+      <c r="F257" t="s">
+        <v>60</v>
+      </c>
+      <c r="G257" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="258">
@@ -5291,10 +5291,19 @@
         <v>21</v>
       </c>
       <c r="C261" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D261" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="E261" t="s">
+        <v>33</v>
+      </c>
+      <c r="F261" t="s">
+        <v>15</v>
+      </c>
+      <c r="G261" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="262">
@@ -5305,19 +5314,10 @@
         <v>21</v>
       </c>
       <c r="C262" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D262" t="s">
-        <v>32</v>
-      </c>
-      <c r="E262" t="s">
-        <v>33</v>
-      </c>
-      <c r="F262" t="s">
-        <v>15</v>
-      </c>
-      <c r="G262" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="263">
@@ -5328,7 +5328,7 @@
         <v>21</v>
       </c>
       <c r="C263" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D263" t="s">
         <v>15</v>
@@ -5528,7 +5528,7 @@
         <v>21</v>
       </c>
       <c r="C276" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D276" t="s">
         <v>15</v>
@@ -5641,33 +5641,24 @@
         <v>330</v>
       </c>
       <c r="B283" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="C283" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D283" t="s">
-        <v>80</v>
-      </c>
-      <c r="E283" t="s">
-        <v>331</v>
-      </c>
-      <c r="F283" t="s">
-        <v>15</v>
-      </c>
-      <c r="G283" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B284" t="s">
         <v>21</v>
       </c>
       <c r="C284" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D284" t="s">
         <v>15</v>
@@ -5675,16 +5666,25 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
+        <v>332</v>
+      </c>
+      <c r="B285" t="s">
+        <v>142</v>
+      </c>
+      <c r="C285" t="s">
+        <v>15</v>
+      </c>
+      <c r="D285" t="s">
+        <v>80</v>
+      </c>
+      <c r="E285" t="s">
         <v>333</v>
       </c>
-      <c r="B285" t="s">
-        <v>21</v>
-      </c>
-      <c r="C285" t="s">
-        <v>59</v>
-      </c>
-      <c r="D285" t="s">
-        <v>15</v>
+      <c r="F285" t="s">
+        <v>15</v>
+      </c>
+      <c r="G285" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="286">
@@ -5743,10 +5743,10 @@
         <v>337</v>
       </c>
       <c r="B289" t="s">
-        <v>277</v>
+        <v>21</v>
       </c>
       <c r="C289" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D289" t="s">
         <v>15</v>
@@ -5757,10 +5757,10 @@
         <v>338</v>
       </c>
       <c r="B290" t="s">
-        <v>21</v>
+        <v>277</v>
       </c>
       <c r="C290" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D290" t="s">
         <v>15</v>
@@ -5788,7 +5788,7 @@
         <v>21</v>
       </c>
       <c r="C292" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D292" t="s">
         <v>15</v>
@@ -5802,7 +5802,7 @@
         <v>21</v>
       </c>
       <c r="C293" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D293" t="s">
         <v>15</v>
@@ -6033,7 +6033,7 @@
         <v>21</v>
       </c>
       <c r="C305" t="s">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="D305" t="s">
         <v>15</v>
@@ -6047,7 +6047,7 @@
         <v>21</v>
       </c>
       <c r="C306" t="s">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="D306" t="s">
         <v>15</v>
@@ -6333,13 +6333,22 @@
         <v>375</v>
       </c>
       <c r="B326" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="C326" t="s">
         <v>15</v>
       </c>
       <c r="D326" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="E326" t="s">
+        <v>33</v>
+      </c>
+      <c r="F326" t="s">
+        <v>15</v>
+      </c>
+      <c r="G326" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="327">
@@ -6347,22 +6356,13 @@
         <v>376</v>
       </c>
       <c r="B327" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="C327" t="s">
         <v>15</v>
       </c>
       <c r="D327" t="s">
-        <v>32</v>
-      </c>
-      <c r="E327" t="s">
-        <v>33</v>
-      </c>
-      <c r="F327" t="s">
-        <v>15</v>
-      </c>
-      <c r="G327" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="328">

--- a/EnemyResourceDrop.xlsx
+++ b/EnemyResourceDrop.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="388">
   <si>
     <t>enemyName</t>
   </si>
@@ -53,336 +53,351 @@
     <t>drop[3].itemChance</t>
   </si>
   <si>
+    <t>Jack O'Naut</t>
+  </si>
+  <si>
+    <t>Pulsating Tubercles</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>Infected Palpators</t>
+  </si>
+  <si>
+    <t>Chitinous Husk</t>
+  </si>
+  <si>
+    <t>Severed Bile Sac</t>
+  </si>
+  <si>
+    <t>Shield Dargyn</t>
+  </si>
+  <si>
+    <t>Region Resource</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>Scyto Raknoid</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>Eviscerator</t>
+  </si>
+  <si>
+    <t>Carabus</t>
+  </si>
+  <si>
+    <t>Oxium</t>
+  </si>
+  <si>
+    <t>Frontier Eviscerator</t>
+  </si>
+  <si>
+    <t>Tusk Trooper</t>
+  </si>
+  <si>
+    <t>Ballista</t>
+  </si>
+  <si>
+    <t>Tyl Regor</t>
+  </si>
+  <si>
+    <t>0.9742</t>
+  </si>
+  <si>
+    <t>Orokin Cell</t>
+  </si>
+  <si>
+    <t>0.0258</t>
+  </si>
+  <si>
+    <t>Boiler</t>
+  </si>
+  <si>
+    <t>Terra Elite Overtaker</t>
+  </si>
+  <si>
+    <t>Tusk Seeker</t>
+  </si>
+  <si>
+    <t>Lynx</t>
+  </si>
+  <si>
+    <t>Rathuum Broadcaster</t>
+  </si>
+  <si>
+    <t>Kela De Thaym</t>
+  </si>
+  <si>
+    <t>Kuva Trooper</t>
+  </si>
+  <si>
+    <t>Corrupted Heavy Gunner</t>
+  </si>
+  <si>
+    <t>Kuva Flameblade</t>
+  </si>
+  <si>
+    <t>Sensor Regulator</t>
+  </si>
+  <si>
+    <t>Butcher</t>
+  </si>
+  <si>
+    <t>Seeker</t>
+  </si>
+  <si>
+    <t>Denial Bursa</t>
+  </si>
+  <si>
+    <t>Zeplen</t>
+  </si>
+  <si>
+    <t>Phorid</t>
+  </si>
+  <si>
+    <t>Corrupted Warden</t>
+  </si>
+  <si>
+    <t>Kyta Raknoid</t>
+  </si>
+  <si>
+    <t>Hyena Ng</t>
+  </si>
+  <si>
+    <t>Oxium Osprey</t>
+  </si>
+  <si>
+    <t>Tusk Roller</t>
+  </si>
+  <si>
+    <t>Rabbleback Hyena</t>
+  </si>
+  <si>
+    <t>Mutalist Osprey</t>
+  </si>
+  <si>
+    <t>Arid Eviscerator</t>
+  </si>
+  <si>
+    <t>Raptor Rv</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>Neural Sensors</t>
+  </si>
+  <si>
+    <t>Kuva Jester</t>
+  </si>
+  <si>
+    <t>Orvius Disc</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>Prod Crewman</t>
+  </si>
+  <si>
+    <t>Sapping Osprey</t>
+  </si>
+  <si>
+    <t>Hellion Dargyn</t>
+  </si>
+  <si>
+    <t>Ogma Elite</t>
+  </si>
+  <si>
+    <t>0.125</t>
+  </si>
+  <si>
+    <t>Roller</t>
+  </si>
+  <si>
+    <t>Arid Butcher</t>
+  </si>
+  <si>
+    <t>Sap Comba</t>
+  </si>
+  <si>
+    <t>Kuva Dargyn</t>
+  </si>
+  <si>
+    <t>Shadow Stalker</t>
+  </si>
+  <si>
+    <t>Drekar Eviscerator</t>
+  </si>
+  <si>
+    <t>Frigate</t>
+  </si>
+  <si>
+    <t>Roller Sentry</t>
+  </si>
+  <si>
+    <t>Kuva Shield Lancer</t>
+  </si>
+  <si>
+    <t>Drahk</t>
+  </si>
+  <si>
+    <t>0.7744</t>
+  </si>
+  <si>
+    <t>Nav Coordinate</t>
+  </si>
+  <si>
+    <t>0.2256</t>
+  </si>
+  <si>
+    <t>Coolant Raknoid</t>
+  </si>
+  <si>
+    <t>Powercell</t>
+  </si>
+  <si>
+    <t>Corpus Trencher Target</t>
+  </si>
+  <si>
+    <t>Frontier Butcher</t>
+  </si>
+  <si>
+    <t>Sikula</t>
+  </si>
+  <si>
+    <t>Corrupted Bombard</t>
+  </si>
+  <si>
+    <t>Arid Seeker</t>
+  </si>
+  <si>
+    <t>Toxic Ancient</t>
+  </si>
+  <si>
+    <t>Stalker</t>
+  </si>
+  <si>
+    <t>Hunhow</t>
+  </si>
+  <si>
+    <t>Armored Roller</t>
+  </si>
+  <si>
+    <t>Infested Grineer</t>
+  </si>
+  <si>
+    <t>Locust Drone</t>
+  </si>
+  <si>
+    <t>Slo Comba</t>
+  </si>
+  <si>
+    <t>Kubrow</t>
+  </si>
+  <si>
+    <t>Courier</t>
+  </si>
+  <si>
+    <t>Vivisect Director</t>
+  </si>
+  <si>
+    <t>Saturn Six Fugitive</t>
+  </si>
+  <si>
+    <t>Neurodes</t>
+  </si>
+  <si>
+    <t>Tusk Shield Dargyn</t>
+  </si>
+  <si>
+    <t>Armaments Director</t>
+  </si>
+  <si>
+    <t>Electric Crawler</t>
+  </si>
+  <si>
+    <t>Tusk Bombard</t>
+  </si>
+  <si>
+    <t>Nightwatch Lancer</t>
+  </si>
+  <si>
+    <t>Aerial Commander</t>
+  </si>
+  <si>
+    <t>Guardsman</t>
+  </si>
+  <si>
+    <t>Drekar Butcher</t>
+  </si>
+  <si>
+    <t>Lancer Dreg</t>
+  </si>
+  <si>
+    <t>Terra Moa</t>
+  </si>
+  <si>
+    <t>Arcane Boiler</t>
+  </si>
+  <si>
+    <t>Orphid Husks</t>
+  </si>
+  <si>
+    <t>Gyre Hyena</t>
+  </si>
+  <si>
+    <t>Gox</t>
+  </si>
+  <si>
+    <t>Hyena Pb</t>
+  </si>
+  <si>
+    <t>Volatile Runner</t>
+  </si>
+  <si>
+    <t>Scavenger Drone</t>
+  </si>
+  <si>
+    <t>Ghoul Rictus</t>
+  </si>
+  <si>
+    <t>Draga</t>
+  </si>
+  <si>
+    <t>Nightwatch Hyekka Master</t>
+  </si>
+  <si>
+    <t>Drekar Manic</t>
+  </si>
+  <si>
+    <t>Railgun Moa</t>
+  </si>
+  <si>
+    <t>Elite Crewman</t>
+  </si>
+  <si>
+    <t>Terra Trencher</t>
+  </si>
+  <si>
+    <t>Scorpion</t>
+  </si>
+  <si>
     <t>Juggernaut</t>
   </si>
   <si>
-    <t>Pulsating Tubercles</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>Infected Palpators</t>
-  </si>
-  <si>
-    <t>Chitinous Husk</t>
-  </si>
-  <si>
-    <t>Severed Bile Sac</t>
-  </si>
-  <si>
-    <t>Shield Dargyn</t>
-  </si>
-  <si>
-    <t>Region Resource</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>Scyto Raknoid</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>Eviscerator</t>
-  </si>
-  <si>
-    <t>Carabus</t>
-  </si>
-  <si>
-    <t>Oxium</t>
-  </si>
-  <si>
-    <t>Frontier Eviscerator</t>
-  </si>
-  <si>
-    <t>Tusk Trooper</t>
-  </si>
-  <si>
-    <t>Ballista</t>
-  </si>
-  <si>
-    <t>Tyl Regor</t>
-  </si>
-  <si>
-    <t>0.9742</t>
-  </si>
-  <si>
-    <t>Orokin Cell</t>
-  </si>
-  <si>
-    <t>0.0258</t>
-  </si>
-  <si>
-    <t>Boiler</t>
-  </si>
-  <si>
-    <t>Terra Elite Overtaker</t>
-  </si>
-  <si>
-    <t>Tusk Seeker</t>
-  </si>
-  <si>
-    <t>Lynx</t>
-  </si>
-  <si>
-    <t>Kela De Thaym</t>
-  </si>
-  <si>
-    <t>Rathuum Broadcaster</t>
-  </si>
-  <si>
-    <t>Kuva Trooper</t>
-  </si>
-  <si>
-    <t>Corrupted Heavy Gunner</t>
-  </si>
-  <si>
-    <t>Kuva Flameblade</t>
-  </si>
-  <si>
-    <t>Sensor Regulator</t>
-  </si>
-  <si>
-    <t>Butcher</t>
-  </si>
-  <si>
-    <t>Seeker</t>
-  </si>
-  <si>
-    <t>Denial Bursa</t>
-  </si>
-  <si>
-    <t>Phorid</t>
-  </si>
-  <si>
-    <t>Zeplen</t>
-  </si>
-  <si>
-    <t>Kyta Raknoid</t>
-  </si>
-  <si>
-    <t>Hyena Ng</t>
-  </si>
-  <si>
-    <t>Corrupted Warden</t>
-  </si>
-  <si>
-    <t>Oxium Osprey</t>
-  </si>
-  <si>
-    <t>Tusk Roller</t>
-  </si>
-  <si>
-    <t>Rabbleback Hyena</t>
-  </si>
-  <si>
-    <t>Mutalist Osprey</t>
-  </si>
-  <si>
-    <t>Arid Eviscerator</t>
-  </si>
-  <si>
-    <t>Raptor Rv</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>Neural Sensors</t>
-  </si>
-  <si>
-    <t>Kuva Jester</t>
-  </si>
-  <si>
-    <t>Orvius Disc</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>Hellion Dargyn</t>
-  </si>
-  <si>
-    <t>Prod Crewman</t>
-  </si>
-  <si>
-    <t>Sapping Osprey</t>
-  </si>
-  <si>
-    <t>Ogma Elite</t>
-  </si>
-  <si>
-    <t>0.125</t>
-  </si>
-  <si>
-    <t>Roller</t>
-  </si>
-  <si>
-    <t>Arid Butcher</t>
-  </si>
-  <si>
-    <t>Sap Comba</t>
-  </si>
-  <si>
-    <t>Kuva Dargyn</t>
-  </si>
-  <si>
-    <t>Shadow Stalker</t>
-  </si>
-  <si>
-    <t>Drekar Eviscerator</t>
-  </si>
-  <si>
-    <t>Frigate</t>
-  </si>
-  <si>
-    <t>Roller Sentry</t>
-  </si>
-  <si>
-    <t>Kuva Shield Lancer</t>
-  </si>
-  <si>
-    <t>Drahk</t>
-  </si>
-  <si>
-    <t>0.7744</t>
-  </si>
-  <si>
-    <t>Nav Coordinate</t>
-  </si>
-  <si>
-    <t>0.2256</t>
-  </si>
-  <si>
-    <t>Corpus Trencher Target</t>
-  </si>
-  <si>
-    <t>Frontier Butcher</t>
-  </si>
-  <si>
-    <t>Sikula</t>
-  </si>
-  <si>
-    <t>Corrupted Bombard</t>
-  </si>
-  <si>
-    <t>Arid Seeker</t>
-  </si>
-  <si>
-    <t>Toxic Ancient</t>
-  </si>
-  <si>
-    <t>Stalker</t>
-  </si>
-  <si>
-    <t>Hunhow</t>
-  </si>
-  <si>
-    <t>Armored Roller</t>
-  </si>
-  <si>
-    <t>Infested Grineer</t>
-  </si>
-  <si>
-    <t>Locust Drone</t>
-  </si>
-  <si>
-    <t>Slo Comba</t>
-  </si>
-  <si>
-    <t>Kubrow</t>
-  </si>
-  <si>
-    <t>Courier</t>
-  </si>
-  <si>
-    <t>Vivisect Director</t>
-  </si>
-  <si>
-    <t>Tusk Shield Dargyn</t>
-  </si>
-  <si>
-    <t>Armaments Director</t>
-  </si>
-  <si>
-    <t>Electric Crawler</t>
-  </si>
-  <si>
-    <t>Tusk Bombard</t>
-  </si>
-  <si>
-    <t>Aerial Commander</t>
-  </si>
-  <si>
-    <t>Guardsman</t>
-  </si>
-  <si>
-    <t>Nightwatch Lancer</t>
-  </si>
-  <si>
-    <t>Drekar Butcher</t>
-  </si>
-  <si>
-    <t>Lancer Dreg</t>
-  </si>
-  <si>
-    <t>Terra Moa</t>
-  </si>
-  <si>
-    <t>Arcane Boiler</t>
-  </si>
-  <si>
-    <t>Orphid Husks</t>
-  </si>
-  <si>
-    <t>Gyre Hyena</t>
-  </si>
-  <si>
-    <t>Gox</t>
-  </si>
-  <si>
-    <t>Hyena Pb</t>
-  </si>
-  <si>
-    <t>Volatile Runner</t>
-  </si>
-  <si>
-    <t>Scavenger Drone</t>
-  </si>
-  <si>
-    <t>Ghoul Rictus</t>
-  </si>
-  <si>
-    <t>Draga</t>
-  </si>
-  <si>
-    <t>Nightwatch Hyekka Master</t>
-  </si>
-  <si>
-    <t>Drekar Manic</t>
-  </si>
-  <si>
-    <t>Railgun Moa</t>
-  </si>
-  <si>
-    <t>Elite Crewman</t>
-  </si>
-  <si>
-    <t>Terra Trencher</t>
-  </si>
-  <si>
-    <t>Scorpion</t>
-  </si>
-  <si>
     <t>Tusk Heavy Gunner</t>
   </si>
   <si>
@@ -404,12 +419,12 @@
     <t>Ancient Disruptor</t>
   </si>
   <si>
+    <t>Infested Corpus</t>
+  </si>
+  <si>
     <t>Plains Commander</t>
   </si>
   <si>
-    <t>Infested Corpus</t>
-  </si>
-  <si>
     <t>General Sargas Ruk</t>
   </si>
   <si>
@@ -434,27 +449,24 @@
     <t>Carrier</t>
   </si>
   <si>
+    <t>Shik Tal</t>
+  </si>
+  <si>
+    <t>Brakk Barrel</t>
+  </si>
+  <si>
     <t>Decaying Conculyst</t>
   </si>
   <si>
-    <t>Shik Tal</t>
-  </si>
-  <si>
-    <t>Neurodes</t>
-  </si>
-  <si>
-    <t>Brakk Barrel</t>
-  </si>
-  <si>
     <t>Kuva Hellion</t>
   </si>
   <si>
+    <t>Nightwatch Bombard</t>
+  </si>
+  <si>
     <t>Terra Elite Raptor Sx</t>
   </si>
   <si>
-    <t>Nightwatch Bombard</t>
-  </si>
-  <si>
     <t>Mite Raknoid</t>
   </si>
   <si>
@@ -515,12 +527,12 @@
     <t>Orvius Blade</t>
   </si>
   <si>
+    <t>Nightwatch Powerclaw</t>
+  </si>
+  <si>
     <t>Kuva Scorch</t>
   </si>
   <si>
-    <t>Nightwatch Powerclaw</t>
-  </si>
-  <si>
     <t>Sprag</t>
   </si>
   <si>
@@ -560,24 +572,24 @@
     <t>Quanta Ranger</t>
   </si>
   <si>
+    <t>Arbitration Shield Drone</t>
+  </si>
+  <si>
     <t>Tusk Mortar Bombard</t>
   </si>
   <si>
-    <t>Arbitration Shield Drone</t>
-  </si>
-  <si>
     <t>Nemes</t>
   </si>
   <si>
     <t>Moa</t>
   </si>
   <si>
+    <t>Drekar Manic Bombard</t>
+  </si>
+  <si>
     <t>Tusk Flameblade</t>
   </si>
   <si>
-    <t>Drekar Manic Bombard</t>
-  </si>
-  <si>
     <t>Orb Vallis - Enrichment Labs Enemies</t>
   </si>
   <si>
@@ -608,21 +620,21 @@
     <t>Ven'Kra Tel</t>
   </si>
   <si>
+    <t>Shock Draga</t>
+  </si>
+  <si>
     <t>J3 Jordas Golem</t>
   </si>
   <si>
-    <t>Shock Draga</t>
-  </si>
-  <si>
     <t>Mutalist Alad V</t>
   </si>
   <si>
+    <t>Shield Lancer</t>
+  </si>
+  <si>
     <t>Turret</t>
   </si>
   <si>
-    <t>Shield Lancer</t>
-  </si>
-  <si>
     <t>Corrupted Moa</t>
   </si>
   <si>
@@ -635,6 +647,12 @@
     <t>Terra Railgun Moa</t>
   </si>
   <si>
+    <t>Wolf Of Saturn Six</t>
+  </si>
+  <si>
+    <t>Nitain Extract</t>
+  </si>
+  <si>
     <t>Elite Arid Lancer</t>
   </si>
   <si>
@@ -695,12 +713,12 @@
     <t>Kuva Heavy Gunner</t>
   </si>
   <si>
+    <t>Artificer</t>
+  </si>
+  <si>
     <t>Powerfist</t>
   </si>
   <si>
-    <t>Artificer</t>
-  </si>
-  <si>
     <t>Battalyst</t>
   </si>
   <si>
@@ -734,12 +752,12 @@
     <t>Terra Shockwave Moa</t>
   </si>
   <si>
+    <t>Nightwatch Flameblade</t>
+  </si>
+  <si>
     <t>Tusk Napalm</t>
   </si>
   <si>
-    <t>Nightwatch Flameblade</t>
-  </si>
-  <si>
     <t>Frontier Trooper</t>
   </si>
   <si>
@@ -758,12 +776,12 @@
     <t>Trooper</t>
   </si>
   <si>
+    <t>Bailiff</t>
+  </si>
+  <si>
     <t>Arid Trooper</t>
   </si>
   <si>
-    <t>Bailiff</t>
-  </si>
-  <si>
     <t>Frontier Regulator</t>
   </si>
   <si>
@@ -812,12 +830,12 @@
     <t>Charger</t>
   </si>
   <si>
+    <t>Nightwatch Seeker</t>
+  </si>
+  <si>
     <t>Kuva Elite Lancer</t>
   </si>
   <si>
-    <t>Nightwatch Seeker</t>
-  </si>
-  <si>
     <t>Ashen Kuaka</t>
   </si>
   <si>
@@ -848,12 +866,12 @@
     <t>Intact Sentient Core</t>
   </si>
   <si>
+    <t>Carrion Charger</t>
+  </si>
+  <si>
     <t>Drekar Elite Lancer</t>
   </si>
   <si>
-    <t>Carrion Charger</t>
-  </si>
-  <si>
     <t>Grineer Power Carrier</t>
   </si>
   <si>
@@ -923,12 +941,12 @@
     <t>Corpus Sniper Target</t>
   </si>
   <si>
+    <t>Ambulas</t>
+  </si>
+  <si>
     <t>Frontier Seeker</t>
   </si>
   <si>
-    <t>Ambulas</t>
-  </si>
-  <si>
     <t>Lt Lech Kril</t>
   </si>
   <si>
@@ -959,12 +977,12 @@
     <t>Anti Moa</t>
   </si>
   <si>
+    <t>Darek Draga</t>
+  </si>
+  <si>
     <t>Kuva Roller</t>
   </si>
   <si>
-    <t>Darek Draga</t>
-  </si>
-  <si>
     <t>Terra Elite Crewman</t>
   </si>
   <si>
@@ -974,21 +992,21 @@
     <t>Toxic Crawler</t>
   </si>
   <si>
+    <t>Grineer Manic</t>
+  </si>
+  <si>
     <t>Fog Scrambus</t>
   </si>
   <si>
-    <t>Grineer Manic</t>
+    <t>Ogma</t>
+  </si>
+  <si>
+    <t>Manic Bombard</t>
   </si>
   <si>
     <t>Hyena Ln2</t>
   </si>
   <si>
-    <t>Ogma</t>
-  </si>
-  <si>
-    <t>Manic Bombard</t>
-  </si>
-  <si>
     <t>Terra Ambulas</t>
   </si>
   <si>
@@ -1004,18 +1022,18 @@
     <t>Raptor Ns</t>
   </si>
   <si>
+    <t>Leekter</t>
+  </si>
+  <si>
+    <t>Brakk Receiver</t>
+  </si>
+  <si>
     <t>Hyekka Master</t>
   </si>
   <si>
     <t>Terra Attack Drone</t>
   </si>
   <si>
-    <t>Leekter</t>
-  </si>
-  <si>
-    <t>Brakk Receiver</t>
-  </si>
-  <si>
     <t>Tusk Dargyn</t>
   </si>
   <si>
@@ -1049,18 +1067,15 @@
     <t>Regulator</t>
   </si>
   <si>
+    <t>Orokin Spectator</t>
+  </si>
+  <si>
     <t>Kuva Drahk Master</t>
   </si>
   <si>
-    <t>Orokin Spectator</t>
-  </si>
-  <si>
     <t>Penta Ranger</t>
   </si>
   <si>
-    <t>Jack O'Naut</t>
-  </si>
-  <si>
     <t>Drekar Ballista</t>
   </si>
   <si>
@@ -1076,12 +1091,12 @@
     <t>Terra Turret Osprey</t>
   </si>
   <si>
+    <t>Corrupted Ancient</t>
+  </si>
+  <si>
     <t>Corpus Cestra Target</t>
   </si>
   <si>
-    <t>Corrupted Ancient</t>
-  </si>
-  <si>
     <t>Ancient Healer</t>
   </si>
   <si>
@@ -1106,27 +1121,27 @@
     <t>Ghoul Expired</t>
   </si>
   <si>
+    <t>Leech Osprey</t>
+  </si>
+  <si>
     <t>Tusk Elite Lancer</t>
   </si>
   <si>
-    <t>Leech Osprey</t>
-  </si>
-  <si>
     <t>Kuva Drahk</t>
   </si>
   <si>
     <t>Venin Mutalist</t>
   </si>
   <si>
+    <t>Datalyst</t>
+  </si>
+  <si>
     <t>Detron Crewman</t>
   </si>
   <si>
     <t>Dreg</t>
   </si>
   <si>
-    <t>Datalyst</t>
-  </si>
-  <si>
     <t>Drekar Scorpion</t>
   </si>
   <si>
@@ -1139,19 +1154,19 @@
     <t>Ancient Infested</t>
   </si>
   <si>
+    <t>Vem Tabook</t>
+  </si>
+  <si>
     <t>Hyena Th</t>
   </si>
   <si>
-    <t>Vem Tabook</t>
-  </si>
-  <si>
     <t>Kuaka</t>
   </si>
   <si>
+    <t>Corpus Warden</t>
+  </si>
+  <si>
     <t>Terra Raptor Sx</t>
-  </si>
-  <si>
-    <t>Corpus Warden</t>
   </si>
   <si>
     <t>Corpus Power Carrier</t>
@@ -1205,7 +1220,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N333"/>
+  <dimension ref="A1:N336"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1478,19 +1493,10 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1501,10 +1507,19 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -1613,19 +1628,10 @@
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -1636,10 +1642,19 @@
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -1650,7 +1665,7 @@
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
@@ -1664,19 +1679,10 @@
         <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -1687,10 +1693,19 @@
         <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="29">
@@ -2028,10 +2043,10 @@
         <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C50" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D50" t="s">
         <v>15</v>
@@ -2039,13 +2054,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B51" t="s">
         <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D51" t="s">
         <v>15</v>
@@ -2053,7 +2068,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B52" t="s">
         <v>21</v>
@@ -2067,7 +2082,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B53" t="s">
         <v>21</v>
@@ -2081,7 +2096,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B54" t="s">
         <v>21</v>
@@ -2095,7 +2110,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B55" t="s">
         <v>21</v>
@@ -2109,30 +2124,21 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B56" t="s">
         <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="D56" t="s">
-        <v>32</v>
-      </c>
-      <c r="E56" t="s">
-        <v>33</v>
-      </c>
-      <c r="F56" t="s">
-        <v>60</v>
-      </c>
-      <c r="G56" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B57" t="s">
         <v>21</v>
@@ -2155,27 +2161,36 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B58" t="s">
         <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D58" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="E58" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" t="s">
+        <v>60</v>
+      </c>
+      <c r="G58" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B59" t="s">
         <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D59" t="s">
         <v>15</v>
@@ -2183,13 +2198,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B60" t="s">
         <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s">
         <v>15</v>
@@ -2197,7 +2212,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B61" t="s">
         <v>21</v>
@@ -2211,50 +2226,50 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B62" t="s">
         <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D62" t="s">
-        <v>80</v>
-      </c>
-      <c r="E62" t="s">
-        <v>81</v>
-      </c>
-      <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B63" t="s">
         <v>21</v>
       </c>
       <c r="C63" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
+        <v>80</v>
+      </c>
+      <c r="E63" t="s">
+        <v>81</v>
+      </c>
+      <c r="F63" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B64" t="s">
         <v>21</v>
       </c>
       <c r="C64" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D64" t="s">
         <v>15</v>
@@ -2262,13 +2277,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B65" t="s">
         <v>21</v>
       </c>
       <c r="C65" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D65" t="s">
         <v>15</v>
@@ -2276,21 +2291,30 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B66" t="s">
         <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D66" t="s">
-        <v>15</v>
+        <v>60</v>
+      </c>
+      <c r="E66" t="s">
+        <v>101</v>
+      </c>
+      <c r="F66" t="s">
+        <v>64</v>
+      </c>
+      <c r="G66" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B67" t="s">
         <v>21</v>
@@ -2304,13 +2328,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B68" t="s">
         <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D68" t="s">
         <v>15</v>
@@ -2318,7 +2342,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B69" t="s">
         <v>21</v>
@@ -2332,7 +2356,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B70" t="s">
         <v>21</v>
@@ -2346,7 +2370,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B71" t="s">
         <v>21</v>
@@ -2360,7 +2384,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B72" t="s">
         <v>21</v>
@@ -2374,7 +2398,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B73" t="s">
         <v>21</v>
@@ -2388,13 +2412,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B74" t="s">
         <v>21</v>
       </c>
       <c r="C74" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D74" t="s">
         <v>15</v>
@@ -2402,7 +2426,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B75" t="s">
         <v>21</v>
@@ -2416,13 +2440,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B76" t="s">
         <v>21</v>
       </c>
       <c r="C76" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D76" t="s">
         <v>15</v>
@@ -2430,30 +2454,21 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B77" t="s">
         <v>21</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D77" t="s">
-        <v>32</v>
-      </c>
-      <c r="E77" t="s">
-        <v>33</v>
-      </c>
-      <c r="F77" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B78" t="s">
         <v>21</v>
@@ -2467,7 +2482,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B79" t="s">
         <v>21</v>
@@ -2490,7 +2505,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B80" t="s">
         <v>21</v>
@@ -2504,21 +2519,30 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B81" t="s">
         <v>21</v>
       </c>
       <c r="C81" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="E81" t="s">
+        <v>33</v>
+      </c>
+      <c r="F81" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B82" t="s">
         <v>21</v>
@@ -2532,7 +2556,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B83" t="s">
         <v>21</v>
@@ -2546,7 +2570,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B84" t="s">
         <v>21</v>
@@ -2560,7 +2584,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B85" t="s">
         <v>21</v>
@@ -2574,7 +2598,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B86" t="s">
         <v>21</v>
@@ -2588,7 +2612,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B87" t="s">
         <v>21</v>
@@ -2602,13 +2626,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B88" t="s">
         <v>21</v>
       </c>
       <c r="C88" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D88" t="s">
         <v>15</v>
@@ -2616,7 +2640,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B89" t="s">
         <v>21</v>
@@ -2630,13 +2654,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B90" t="s">
         <v>21</v>
       </c>
       <c r="C90" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D90" t="s">
         <v>15</v>
@@ -2644,7 +2668,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B91" t="s">
         <v>21</v>
@@ -2658,21 +2682,48 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B92" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="E92" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92" t="s">
+        <v>15</v>
+      </c>
+      <c r="G92" t="s">
+        <v>16</v>
+      </c>
+      <c r="H92" t="s">
+        <v>18</v>
+      </c>
+      <c r="I92" t="s">
+        <v>15</v>
+      </c>
+      <c r="J92" t="s">
+        <v>16</v>
+      </c>
+      <c r="K92" t="s">
+        <v>19</v>
+      </c>
+      <c r="L92" t="s">
+        <v>15</v>
+      </c>
+      <c r="M92" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B93" t="s">
         <v>21</v>
@@ -2686,7 +2737,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B94" t="s">
         <v>21</v>
@@ -2700,7 +2751,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B95" t="s">
         <v>21</v>
@@ -2714,7 +2765,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B96" t="s">
         <v>21</v>
@@ -2728,7 +2779,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B97" t="s">
         <v>21</v>
@@ -2742,13 +2793,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B98" t="s">
         <v>21</v>
       </c>
       <c r="C98" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D98" t="s">
         <v>15</v>
@@ -2756,36 +2807,27 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B99" t="s">
         <v>21</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D99" t="s">
-        <v>32</v>
-      </c>
-      <c r="E99" t="s">
-        <v>33</v>
-      </c>
-      <c r="F99" t="s">
-        <v>15</v>
-      </c>
-      <c r="G99" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B100" t="s">
         <v>21</v>
       </c>
       <c r="C100" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D100" t="s">
         <v>15</v>
@@ -2793,7 +2835,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B101" t="s">
         <v>21</v>
@@ -2807,21 +2849,30 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B102" t="s">
         <v>21</v>
       </c>
       <c r="C102" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="E102" t="s">
+        <v>33</v>
+      </c>
+      <c r="F102" t="s">
+        <v>15</v>
+      </c>
+      <c r="G102" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B103" t="s">
         <v>21</v>
@@ -2835,53 +2886,35 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B104" t="s">
         <v>21</v>
       </c>
       <c r="C104" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="D104" t="s">
-        <v>32</v>
-      </c>
-      <c r="E104" t="s">
-        <v>33</v>
-      </c>
-      <c r="F104" t="s">
-        <v>60</v>
-      </c>
-      <c r="G104" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B105" t="s">
         <v>21</v>
       </c>
       <c r="C105" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D105" t="s">
-        <v>80</v>
-      </c>
-      <c r="E105" t="s">
-        <v>81</v>
-      </c>
-      <c r="F105" t="s">
-        <v>16</v>
-      </c>
-      <c r="G105" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B106" t="s">
         <v>21</v>
@@ -2895,7 +2928,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B107" t="s">
         <v>21</v>
@@ -2918,22 +2951,22 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B108" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="C108" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D108" t="s">
         <v>80</v>
       </c>
       <c r="E108" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="F108" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G108" t="s">
         <v>82</v>
@@ -2958,38 +2991,56 @@
         <v>145</v>
       </c>
       <c r="B110" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="C110" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D110" t="s">
-        <v>15</v>
+        <v>80</v>
+      </c>
+      <c r="E110" t="s">
+        <v>146</v>
+      </c>
+      <c r="F110" t="s">
+        <v>15</v>
+      </c>
+      <c r="G110" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B111" t="s">
         <v>21</v>
       </c>
       <c r="C111" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D111" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="E111" t="s">
+        <v>33</v>
+      </c>
+      <c r="F111" t="s">
+        <v>60</v>
+      </c>
+      <c r="G111" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B112" t="s">
         <v>21</v>
       </c>
       <c r="C112" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D112" t="s">
         <v>15</v>
@@ -2997,7 +3048,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B113" t="s">
         <v>21</v>
@@ -3011,13 +3062,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B114" t="s">
         <v>21</v>
       </c>
       <c r="C114" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D114" t="s">
         <v>15</v>
@@ -3025,13 +3076,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B115" t="s">
         <v>21</v>
       </c>
       <c r="C115" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D115" t="s">
         <v>15</v>
@@ -3039,53 +3090,35 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B116" t="s">
         <v>21</v>
       </c>
       <c r="C116" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D116" t="s">
-        <v>32</v>
-      </c>
-      <c r="E116" t="s">
-        <v>33</v>
-      </c>
-      <c r="F116" t="s">
-        <v>15</v>
-      </c>
-      <c r="G116" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B117" t="s">
         <v>21</v>
       </c>
       <c r="C117" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D117" t="s">
-        <v>32</v>
-      </c>
-      <c r="E117" t="s">
-        <v>33</v>
-      </c>
-      <c r="F117" t="s">
-        <v>15</v>
-      </c>
-      <c r="G117" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B118" t="s">
         <v>21</v>
@@ -3099,35 +3132,53 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B119" t="s">
         <v>21</v>
       </c>
       <c r="C119" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D119" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="E119" t="s">
+        <v>33</v>
+      </c>
+      <c r="F119" t="s">
+        <v>15</v>
+      </c>
+      <c r="G119" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B120" t="s">
         <v>21</v>
       </c>
       <c r="C120" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D120" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="E120" t="s">
+        <v>33</v>
+      </c>
+      <c r="F120" t="s">
+        <v>15</v>
+      </c>
+      <c r="G120" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B121" t="s">
         <v>21</v>
@@ -3141,7 +3192,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B122" t="s">
         <v>21</v>
@@ -3155,7 +3206,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B123" t="s">
         <v>21</v>
@@ -3169,13 +3220,13 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B124" t="s">
         <v>21</v>
       </c>
       <c r="C124" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D124" t="s">
         <v>15</v>
@@ -3183,7 +3234,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B125" t="s">
         <v>21</v>
@@ -3197,13 +3248,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B126" t="s">
         <v>21</v>
       </c>
       <c r="C126" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D126" t="s">
         <v>15</v>
@@ -3211,13 +3262,13 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B127" t="s">
         <v>21</v>
       </c>
       <c r="C127" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D127" t="s">
         <v>15</v>
@@ -3225,7 +3276,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B128" t="s">
         <v>21</v>
@@ -3239,36 +3290,27 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B129" t="s">
         <v>21</v>
       </c>
       <c r="C129" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D129" t="s">
-        <v>32</v>
-      </c>
-      <c r="E129" t="s">
-        <v>33</v>
-      </c>
-      <c r="F129" t="s">
-        <v>15</v>
-      </c>
-      <c r="G129" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B130" t="s">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="C130" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="D130" t="s">
         <v>15</v>
@@ -3296,10 +3338,19 @@
         <v>21</v>
       </c>
       <c r="C132" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D132" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="E132" t="s">
+        <v>33</v>
+      </c>
+      <c r="F132" t="s">
+        <v>15</v>
+      </c>
+      <c r="G132" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="133">
@@ -3307,10 +3358,10 @@
         <v>169</v>
       </c>
       <c r="B133" t="s">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="C133" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="D133" t="s">
         <v>15</v>
@@ -3318,7 +3369,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B134" t="s">
         <v>21</v>
@@ -3332,7 +3383,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B135" t="s">
         <v>21</v>
@@ -3346,13 +3397,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B136" t="s">
         <v>21</v>
       </c>
       <c r="C136" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D136" t="s">
         <v>15</v>
@@ -3360,13 +3411,13 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B137" t="s">
         <v>21</v>
       </c>
       <c r="C137" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D137" t="s">
         <v>15</v>
@@ -3374,36 +3425,27 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B138" t="s">
         <v>21</v>
       </c>
       <c r="C138" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D138" t="s">
-        <v>60</v>
-      </c>
-      <c r="E138" t="s">
-        <v>61</v>
-      </c>
-      <c r="F138" t="s">
-        <v>59</v>
-      </c>
-      <c r="G138" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B139" t="s">
         <v>21</v>
       </c>
       <c r="C139" t="s">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="D139" t="s">
         <v>15</v>
@@ -3431,10 +3473,19 @@
         <v>21</v>
       </c>
       <c r="C141" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="D141" t="s">
-        <v>15</v>
+        <v>60</v>
+      </c>
+      <c r="E141" t="s">
+        <v>61</v>
+      </c>
+      <c r="F141" t="s">
+        <v>59</v>
+      </c>
+      <c r="G141" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="142">
@@ -3445,7 +3496,7 @@
         <v>21</v>
       </c>
       <c r="C142" t="s">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="D142" t="s">
         <v>15</v>
@@ -3453,13 +3504,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B143" t="s">
         <v>21</v>
       </c>
       <c r="C143" t="s">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="D143" t="s">
         <v>15</v>
@@ -3467,13 +3518,13 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B144" t="s">
         <v>21</v>
       </c>
       <c r="C144" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D144" t="s">
         <v>15</v>
@@ -3481,7 +3532,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B145" t="s">
         <v>21</v>
@@ -3495,13 +3546,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B146" t="s">
         <v>21</v>
       </c>
       <c r="C146" t="s">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="D146" t="s">
         <v>15</v>
@@ -3509,13 +3560,13 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B147" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C147" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D147" t="s">
         <v>15</v>
@@ -3523,7 +3574,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B148" t="s">
         <v>21</v>
@@ -3537,7 +3588,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B149" t="s">
         <v>21</v>
@@ -3551,13 +3602,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B150" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C150" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D150" t="s">
         <v>15</v>
@@ -3565,30 +3616,21 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B151" t="s">
         <v>21</v>
       </c>
       <c r="C151" t="s">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c r="D151" t="s">
-        <v>190</v>
-      </c>
-      <c r="E151" t="s">
-        <v>191</v>
-      </c>
-      <c r="F151" t="s">
-        <v>189</v>
-      </c>
-      <c r="G151" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B152" t="s">
         <v>21</v>
@@ -3602,13 +3644,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B153" t="s">
         <v>21</v>
       </c>
       <c r="C153" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D153" t="s">
         <v>15</v>
@@ -3616,21 +3658,30 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
+        <v>192</v>
+      </c>
+      <c r="B154" t="s">
+        <v>21</v>
+      </c>
+      <c r="C154" t="s">
+        <v>193</v>
+      </c>
+      <c r="D154" t="s">
         <v>194</v>
       </c>
-      <c r="B154" t="s">
-        <v>21</v>
-      </c>
-      <c r="C154" t="s">
-        <v>22</v>
-      </c>
-      <c r="D154" t="s">
-        <v>15</v>
+      <c r="E154" t="s">
+        <v>195</v>
+      </c>
+      <c r="F154" t="s">
+        <v>193</v>
+      </c>
+      <c r="G154" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B155" t="s">
         <v>21</v>
@@ -3644,13 +3695,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B156" t="s">
         <v>21</v>
       </c>
       <c r="C156" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D156" t="s">
         <v>15</v>
@@ -3658,13 +3709,13 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B157" t="s">
         <v>21</v>
       </c>
       <c r="C157" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D157" t="s">
         <v>15</v>
@@ -3672,30 +3723,21 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B158" t="s">
         <v>21</v>
       </c>
       <c r="C158" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D158" t="s">
-        <v>32</v>
-      </c>
-      <c r="E158" t="s">
-        <v>33</v>
-      </c>
-      <c r="F158" t="s">
-        <v>15</v>
-      </c>
-      <c r="G158" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B159" t="s">
         <v>21</v>
@@ -3709,7 +3751,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B160" t="s">
         <v>21</v>
@@ -3718,21 +3760,12 @@
         <v>15</v>
       </c>
       <c r="D160" t="s">
-        <v>32</v>
-      </c>
-      <c r="E160" t="s">
-        <v>33</v>
-      </c>
-      <c r="F160" t="s">
-        <v>15</v>
-      </c>
-      <c r="G160" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B161" t="s">
         <v>21</v>
@@ -3746,35 +3779,53 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B162" t="s">
         <v>21</v>
       </c>
       <c r="C162" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D162" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="E162" t="s">
+        <v>33</v>
+      </c>
+      <c r="F162" t="s">
+        <v>15</v>
+      </c>
+      <c r="G162" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B163" t="s">
         <v>21</v>
       </c>
       <c r="C163" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D163" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="E163" t="s">
+        <v>33</v>
+      </c>
+      <c r="F163" t="s">
+        <v>15</v>
+      </c>
+      <c r="G163" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B164" t="s">
         <v>21</v>
@@ -3788,7 +3839,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B165" t="s">
         <v>21</v>
@@ -3802,13 +3853,13 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B166" t="s">
         <v>21</v>
       </c>
       <c r="C166" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D166" t="s">
         <v>15</v>
@@ -3816,7 +3867,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B167" t="s">
         <v>21</v>
@@ -3830,7 +3881,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B168" t="s">
         <v>21</v>
@@ -3844,25 +3895,16 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B169" t="s">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="C169" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D169" t="s">
-        <v>60</v>
-      </c>
-      <c r="E169" t="s">
-        <v>33</v>
-      </c>
-      <c r="F169" t="s">
-        <v>15</v>
-      </c>
-      <c r="G169" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="170">
@@ -3873,16 +3915,16 @@
         <v>21</v>
       </c>
       <c r="C170" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D170" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E170" t="s">
-        <v>33</v>
+        <v>212</v>
       </c>
       <c r="F170" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="G170" t="s">
         <v>34</v>
@@ -3890,7 +3932,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B171" t="s">
         <v>21</v>
@@ -3904,7 +3946,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B172" t="s">
         <v>21</v>
@@ -3918,21 +3960,30 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B173" t="s">
-        <v>21</v>
+        <v>216</v>
       </c>
       <c r="C173" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D173" t="s">
-        <v>15</v>
+        <v>60</v>
+      </c>
+      <c r="E173" t="s">
+        <v>33</v>
+      </c>
+      <c r="F173" t="s">
+        <v>15</v>
+      </c>
+      <c r="G173" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B174" t="s">
         <v>21</v>
@@ -3942,63 +3993,54 @@
       </c>
       <c r="D174" t="s">
         <v>15</v>
+      </c>
+      <c r="E174" t="s">
+        <v>33</v>
+      </c>
+      <c r="F174" t="s">
+        <v>15</v>
+      </c>
+      <c r="G174" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B175" t="s">
         <v>21</v>
       </c>
       <c r="C175" t="s">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c r="D175" t="s">
-        <v>190</v>
-      </c>
-      <c r="E175" t="s">
-        <v>217</v>
-      </c>
-      <c r="F175" t="s">
-        <v>189</v>
-      </c>
-      <c r="G175" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B176" t="s">
         <v>21</v>
       </c>
       <c r="C176" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D176" t="s">
-        <v>32</v>
-      </c>
-      <c r="E176" t="s">
-        <v>33</v>
-      </c>
-      <c r="F176" t="s">
-        <v>15</v>
-      </c>
-      <c r="G176" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B177" t="s">
         <v>21</v>
       </c>
       <c r="C177" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D177" t="s">
         <v>15</v>
@@ -4006,7 +4048,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B178" t="s">
         <v>21</v>
@@ -4020,50 +4062,59 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B179" t="s">
         <v>21</v>
       </c>
       <c r="C179" t="s">
-        <v>60</v>
+        <v>193</v>
       </c>
       <c r="D179" t="s">
-        <v>32</v>
+        <v>194</v>
       </c>
       <c r="E179" t="s">
-        <v>33</v>
+        <v>223</v>
       </c>
       <c r="F179" t="s">
-        <v>60</v>
+        <v>193</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B180" t="s">
         <v>21</v>
       </c>
       <c r="C180" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D180" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="E180" t="s">
+        <v>33</v>
+      </c>
+      <c r="F180" t="s">
+        <v>15</v>
+      </c>
+      <c r="G180" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B181" t="s">
         <v>21</v>
       </c>
       <c r="C181" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D181" t="s">
         <v>15</v>
@@ -4071,7 +4122,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B182" t="s">
         <v>21</v>
@@ -4085,21 +4136,30 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B183" t="s">
         <v>21</v>
       </c>
       <c r="C183" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D183" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="E183" t="s">
+        <v>33</v>
+      </c>
+      <c r="F183" t="s">
+        <v>60</v>
+      </c>
+      <c r="G183" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B184" t="s">
         <v>21</v>
@@ -4113,7 +4173,7 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B185" t="s">
         <v>21</v>
@@ -4127,53 +4187,35 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B186" t="s">
         <v>21</v>
       </c>
       <c r="C186" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D186" t="s">
-        <v>32</v>
-      </c>
-      <c r="E186" t="s">
-        <v>33</v>
-      </c>
-      <c r="F186" t="s">
-        <v>15</v>
-      </c>
-      <c r="G186" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B187" t="s">
         <v>21</v>
       </c>
       <c r="C187" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D187" t="s">
-        <v>32</v>
-      </c>
-      <c r="E187" t="s">
-        <v>33</v>
-      </c>
-      <c r="F187" t="s">
-        <v>60</v>
-      </c>
-      <c r="G187" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B188" t="s">
         <v>21</v>
@@ -4187,21 +4229,30 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B189" t="s">
         <v>21</v>
       </c>
       <c r="C189" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D189" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="E189" t="s">
+        <v>33</v>
+      </c>
+      <c r="F189" t="s">
+        <v>15</v>
+      </c>
+      <c r="G189" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B190" t="s">
         <v>21</v>
@@ -4215,21 +4266,30 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B191" t="s">
         <v>21</v>
       </c>
       <c r="C191" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D191" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="E191" t="s">
+        <v>33</v>
+      </c>
+      <c r="F191" t="s">
+        <v>60</v>
+      </c>
+      <c r="G191" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B192" t="s">
         <v>21</v>
@@ -4243,7 +4303,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B193" t="s">
         <v>21</v>
@@ -4257,7 +4317,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B194" t="s">
         <v>21</v>
@@ -4271,7 +4331,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B195" t="s">
         <v>21</v>
@@ -4285,7 +4345,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B196" t="s">
         <v>21</v>
@@ -4299,13 +4359,13 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B197" t="s">
         <v>21</v>
       </c>
       <c r="C197" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D197" t="s">
         <v>15</v>
@@ -4313,7 +4373,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B198" t="s">
         <v>21</v>
@@ -4327,7 +4387,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B199" t="s">
         <v>21</v>
@@ -4341,7 +4401,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B200" t="s">
         <v>21</v>
@@ -4355,13 +4415,13 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B201" t="s">
         <v>21</v>
       </c>
       <c r="C201" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D201" t="s">
         <v>15</v>
@@ -4369,7 +4429,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B202" t="s">
         <v>21</v>
@@ -4383,7 +4443,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B203" t="s">
         <v>21</v>
@@ -4397,30 +4457,21 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B204" t="s">
         <v>21</v>
       </c>
       <c r="C204" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D204" t="s">
-        <v>32</v>
-      </c>
-      <c r="E204" t="s">
-        <v>33</v>
-      </c>
-      <c r="F204" t="s">
-        <v>15</v>
-      </c>
-      <c r="G204" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B205" t="s">
         <v>21</v>
@@ -4434,7 +4485,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B206" t="s">
         <v>21</v>
@@ -4448,7 +4499,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B207" t="s">
         <v>21</v>
@@ -4462,21 +4513,30 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B208" t="s">
         <v>21</v>
       </c>
       <c r="C208" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D208" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="E208" t="s">
+        <v>33</v>
+      </c>
+      <c r="F208" t="s">
+        <v>15</v>
+      </c>
+      <c r="G208" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B209" t="s">
         <v>21</v>
@@ -4490,7 +4550,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B210" t="s">
         <v>21</v>
@@ -4504,7 +4564,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B211" t="s">
         <v>21</v>
@@ -4518,30 +4578,21 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B212" t="s">
         <v>21</v>
       </c>
       <c r="C212" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D212" t="s">
-        <v>32</v>
-      </c>
-      <c r="E212" t="s">
-        <v>33</v>
-      </c>
-      <c r="F212" t="s">
-        <v>15</v>
-      </c>
-      <c r="G212" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B213" t="s">
         <v>21</v>
@@ -4555,7 +4606,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B214" t="s">
         <v>21</v>
@@ -4569,7 +4620,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B215" t="s">
         <v>21</v>
@@ -4583,36 +4634,36 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B216" t="s">
         <v>21</v>
       </c>
       <c r="C216" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="D216" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="E216" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F216" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="G216" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B217" t="s">
         <v>21</v>
       </c>
       <c r="C217" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D217" t="s">
         <v>15</v>
@@ -4620,7 +4671,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B218" t="s">
         <v>21</v>
@@ -4634,7 +4685,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B219" t="s">
         <v>21</v>
@@ -4648,27 +4699,36 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B220" t="s">
         <v>21</v>
       </c>
       <c r="C220" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D220" t="s">
-        <v>15</v>
+        <v>60</v>
+      </c>
+      <c r="E220" t="s">
+        <v>61</v>
+      </c>
+      <c r="F220" t="s">
+        <v>59</v>
+      </c>
+      <c r="G220" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B221" t="s">
         <v>21</v>
       </c>
       <c r="C221" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D221" t="s">
         <v>15</v>
@@ -4676,7 +4736,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B222" t="s">
         <v>21</v>
@@ -4690,7 +4750,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B223" t="s">
         <v>21</v>
@@ -4704,7 +4764,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B224" t="s">
         <v>21</v>
@@ -4718,7 +4778,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B225" t="s">
         <v>21</v>
@@ -4732,13 +4792,13 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B226" t="s">
-        <v>269</v>
+        <v>21</v>
       </c>
       <c r="C226" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D226" t="s">
         <v>15</v>
@@ -4746,13 +4806,13 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B227" t="s">
         <v>21</v>
       </c>
       <c r="C227" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D227" t="s">
         <v>15</v>
@@ -4760,7 +4820,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B228" t="s">
         <v>21</v>
@@ -4774,7 +4834,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B229" t="s">
         <v>21</v>
@@ -4788,13 +4848,13 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B230" t="s">
-        <v>21</v>
+        <v>275</v>
       </c>
       <c r="C230" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D230" t="s">
         <v>15</v>
@@ -4802,13 +4862,13 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B231" t="s">
         <v>21</v>
       </c>
       <c r="C231" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D231" t="s">
         <v>15</v>
@@ -4816,34 +4876,16 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B232" t="s">
         <v>21</v>
       </c>
       <c r="C232" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D232" t="s">
-        <v>276</v>
-      </c>
-      <c r="E232" t="s">
-        <v>277</v>
-      </c>
-      <c r="F232" t="s">
-        <v>16</v>
-      </c>
-      <c r="G232" t="s">
-        <v>276</v>
-      </c>
-      <c r="H232" t="s">
-        <v>33</v>
-      </c>
-      <c r="I232" t="s">
-        <v>16</v>
-      </c>
-      <c r="J232" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="233">
@@ -4896,38 +4938,47 @@
         <v>21</v>
       </c>
       <c r="C236" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D236" t="s">
-        <v>15</v>
+        <v>282</v>
+      </c>
+      <c r="E236" t="s">
+        <v>283</v>
+      </c>
+      <c r="F236" t="s">
+        <v>16</v>
+      </c>
+      <c r="G236" t="s">
+        <v>282</v>
+      </c>
+      <c r="H236" t="s">
+        <v>33</v>
+      </c>
+      <c r="I236" t="s">
+        <v>16</v>
+      </c>
+      <c r="J236" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B237" t="s">
         <v>21</v>
       </c>
       <c r="C237" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D237" t="s">
-        <v>32</v>
-      </c>
-      <c r="E237" t="s">
-        <v>33</v>
-      </c>
-      <c r="F237" t="s">
-        <v>15</v>
-      </c>
-      <c r="G237" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B238" t="s">
         <v>21</v>
@@ -4941,7 +4992,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B239" t="s">
         <v>21</v>
@@ -4955,7 +5006,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B240" t="s">
         <v>21</v>
@@ -4969,21 +5020,30 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B241" t="s">
         <v>21</v>
       </c>
       <c r="C241" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D241" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="E241" t="s">
+        <v>33</v>
+      </c>
+      <c r="F241" t="s">
+        <v>15</v>
+      </c>
+      <c r="G241" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B242" t="s">
         <v>21</v>
@@ -4997,7 +5057,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B243" t="s">
         <v>21</v>
@@ -5011,25 +5071,16 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B244" t="s">
-        <v>290</v>
+        <v>21</v>
       </c>
       <c r="C244" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D244" t="s">
-        <v>60</v>
-      </c>
-      <c r="E244" t="s">
-        <v>291</v>
-      </c>
-      <c r="F244" t="s">
-        <v>15</v>
-      </c>
-      <c r="G244" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="245">
@@ -5054,19 +5105,10 @@
         <v>21</v>
       </c>
       <c r="C246" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D246" t="s">
-        <v>32</v>
-      </c>
-      <c r="E246" t="s">
-        <v>33</v>
-      </c>
-      <c r="F246" t="s">
-        <v>15</v>
-      </c>
-      <c r="G246" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="247">
@@ -5088,24 +5130,33 @@
         <v>295</v>
       </c>
       <c r="B248" t="s">
-        <v>21</v>
+        <v>296</v>
       </c>
       <c r="C248" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D248" t="s">
-        <v>15</v>
+        <v>60</v>
+      </c>
+      <c r="E248" t="s">
+        <v>297</v>
+      </c>
+      <c r="F248" t="s">
+        <v>15</v>
+      </c>
+      <c r="G248" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B249" t="s">
         <v>21</v>
       </c>
       <c r="C249" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D249" t="s">
         <v>15</v>
@@ -5113,21 +5164,30 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B250" t="s">
         <v>21</v>
       </c>
       <c r="C250" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D250" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="E250" t="s">
+        <v>33</v>
+      </c>
+      <c r="F250" t="s">
+        <v>15</v>
+      </c>
+      <c r="G250" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B251" t="s">
         <v>21</v>
@@ -5141,7 +5201,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B252" t="s">
         <v>21</v>
@@ -5155,13 +5215,13 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B253" t="s">
         <v>21</v>
       </c>
       <c r="C253" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D253" t="s">
         <v>15</v>
@@ -5169,13 +5229,13 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B254" t="s">
         <v>21</v>
       </c>
       <c r="C254" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D254" t="s">
         <v>15</v>
@@ -5183,13 +5243,13 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B255" t="s">
         <v>21</v>
       </c>
       <c r="C255" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D255" t="s">
         <v>15</v>
@@ -5197,7 +5257,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B256" t="s">
         <v>21</v>
@@ -5211,59 +5271,41 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B257" t="s">
         <v>21</v>
       </c>
       <c r="C257" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="D257" t="s">
-        <v>32</v>
-      </c>
-      <c r="E257" t="s">
-        <v>33</v>
-      </c>
-      <c r="F257" t="s">
-        <v>60</v>
-      </c>
-      <c r="G257" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B258" t="s">
         <v>21</v>
       </c>
       <c r="C258" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D258" t="s">
-        <v>32</v>
-      </c>
-      <c r="E258" t="s">
-        <v>33</v>
-      </c>
-      <c r="F258" t="s">
-        <v>15</v>
-      </c>
-      <c r="G258" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B259" t="s">
         <v>21</v>
       </c>
       <c r="C259" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D259" t="s">
         <v>15</v>
@@ -5271,58 +5313,67 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B260" t="s">
         <v>21</v>
       </c>
       <c r="C260" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D260" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="E260" t="s">
+        <v>33</v>
+      </c>
+      <c r="F260" t="s">
+        <v>60</v>
+      </c>
+      <c r="G260" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B261" t="s">
         <v>21</v>
       </c>
       <c r="C261" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D261" t="s">
-        <v>32</v>
-      </c>
-      <c r="E261" t="s">
-        <v>33</v>
-      </c>
-      <c r="F261" t="s">
-        <v>15</v>
-      </c>
-      <c r="G261" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B262" t="s">
         <v>21</v>
       </c>
       <c r="C262" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D262" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="E262" t="s">
+        <v>33</v>
+      </c>
+      <c r="F262" t="s">
+        <v>15</v>
+      </c>
+      <c r="G262" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B263" t="s">
         <v>21</v>
@@ -5336,13 +5387,13 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B264" t="s">
         <v>21</v>
       </c>
       <c r="C264" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D264" t="s">
         <v>15</v>
@@ -5350,27 +5401,36 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B265" t="s">
         <v>21</v>
       </c>
       <c r="C265" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D265" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="E265" t="s">
+        <v>33</v>
+      </c>
+      <c r="F265" t="s">
+        <v>15</v>
+      </c>
+      <c r="G265" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B266" t="s">
         <v>21</v>
       </c>
       <c r="C266" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D266" t="s">
         <v>15</v>
@@ -5378,7 +5438,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B267" t="s">
         <v>21</v>
@@ -5392,13 +5452,13 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B268" t="s">
         <v>21</v>
       </c>
       <c r="C268" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D268" t="s">
         <v>15</v>
@@ -5406,7 +5466,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B269" t="s">
         <v>21</v>
@@ -5420,13 +5480,13 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B270" t="s">
         <v>21</v>
       </c>
       <c r="C270" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D270" t="s">
         <v>15</v>
@@ -5434,30 +5494,21 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B271" t="s">
         <v>21</v>
       </c>
       <c r="C271" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D271" t="s">
-        <v>32</v>
-      </c>
-      <c r="E271" t="s">
-        <v>33</v>
-      </c>
-      <c r="F271" t="s">
-        <v>15</v>
-      </c>
-      <c r="G271" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B272" t="s">
         <v>21</v>
@@ -5471,7 +5522,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B273" t="s">
         <v>21</v>
@@ -5485,13 +5536,13 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B274" t="s">
         <v>21</v>
       </c>
       <c r="C274" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D274" t="s">
         <v>15</v>
@@ -5499,7 +5550,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B275" t="s">
         <v>21</v>
@@ -5522,13 +5573,13 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B276" t="s">
         <v>21</v>
       </c>
       <c r="C276" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="D276" t="s">
         <v>15</v>
@@ -5536,7 +5587,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B277" t="s">
         <v>21</v>
@@ -5550,13 +5601,13 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B278" t="s">
         <v>21</v>
       </c>
       <c r="C278" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D278" t="s">
         <v>15</v>
@@ -5564,13 +5615,13 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B279" t="s">
         <v>21</v>
       </c>
       <c r="C279" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="D279" t="s">
         <v>15</v>
@@ -5578,7 +5629,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B280" t="s">
         <v>21</v>
@@ -5592,7 +5643,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B281" t="s">
         <v>21</v>
@@ -5615,30 +5666,21 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B282" t="s">
         <v>21</v>
       </c>
       <c r="C282" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D282" t="s">
-        <v>60</v>
-      </c>
-      <c r="E282" t="s">
-        <v>61</v>
-      </c>
-      <c r="F282" t="s">
-        <v>59</v>
-      </c>
-      <c r="G282" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B283" t="s">
         <v>21</v>
@@ -5652,13 +5694,13 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B284" t="s">
         <v>21</v>
       </c>
       <c r="C284" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D284" t="s">
         <v>15</v>
@@ -5666,87 +5708,96 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B285" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="C285" t="s">
         <v>15</v>
       </c>
       <c r="D285" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="E285" t="s">
-        <v>333</v>
+        <v>33</v>
       </c>
       <c r="F285" t="s">
         <v>15</v>
       </c>
       <c r="G285" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B286" t="s">
         <v>21</v>
       </c>
       <c r="C286" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D286" t="s">
-        <v>15</v>
+        <v>60</v>
+      </c>
+      <c r="E286" t="s">
+        <v>61</v>
+      </c>
+      <c r="F286" t="s">
+        <v>59</v>
+      </c>
+      <c r="G286" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B287" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="C287" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D287" t="s">
-        <v>15</v>
+        <v>80</v>
+      </c>
+      <c r="E287" t="s">
+        <v>337</v>
+      </c>
+      <c r="F287" t="s">
+        <v>15</v>
+      </c>
+      <c r="G287" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B288" t="s">
         <v>21</v>
       </c>
       <c r="C288" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D288" t="s">
-        <v>80</v>
-      </c>
-      <c r="E288" t="s">
-        <v>81</v>
-      </c>
-      <c r="F288" t="s">
-        <v>16</v>
-      </c>
-      <c r="G288" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B289" t="s">
         <v>21</v>
       </c>
       <c r="C289" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D289" t="s">
         <v>15</v>
@@ -5754,13 +5805,13 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B290" t="s">
-        <v>277</v>
+        <v>21</v>
       </c>
       <c r="C290" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D290" t="s">
         <v>15</v>
@@ -5768,13 +5819,13 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B291" t="s">
         <v>21</v>
       </c>
       <c r="C291" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D291" t="s">
         <v>15</v>
@@ -5782,21 +5833,30 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B292" t="s">
         <v>21</v>
       </c>
       <c r="C292" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D292" t="s">
-        <v>15</v>
+        <v>80</v>
+      </c>
+      <c r="E292" t="s">
+        <v>81</v>
+      </c>
+      <c r="F292" t="s">
+        <v>16</v>
+      </c>
+      <c r="G292" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B293" t="s">
         <v>21</v>
@@ -5810,13 +5870,13 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B294" t="s">
-        <v>21</v>
+        <v>283</v>
       </c>
       <c r="C294" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D294" t="s">
         <v>15</v>
@@ -5824,13 +5884,13 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B295" t="s">
         <v>21</v>
       </c>
       <c r="C295" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D295" t="s">
         <v>15</v>
@@ -5838,13 +5898,13 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B296" t="s">
         <v>21</v>
       </c>
       <c r="C296" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D296" t="s">
         <v>15</v>
@@ -5852,7 +5912,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B297" t="s">
         <v>21</v>
@@ -5866,7 +5926,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B298" t="s">
         <v>21</v>
@@ -5880,7 +5940,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B299" t="s">
         <v>21</v>
@@ -5894,48 +5954,21 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B300" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C300" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D300" t="s">
-        <v>16</v>
-      </c>
-      <c r="E300" t="s">
-        <v>17</v>
-      </c>
-      <c r="F300" t="s">
-        <v>15</v>
-      </c>
-      <c r="G300" t="s">
-        <v>16</v>
-      </c>
-      <c r="H300" t="s">
-        <v>18</v>
-      </c>
-      <c r="I300" t="s">
-        <v>15</v>
-      </c>
-      <c r="J300" t="s">
-        <v>16</v>
-      </c>
-      <c r="K300" t="s">
-        <v>19</v>
-      </c>
-      <c r="L300" t="s">
-        <v>15</v>
-      </c>
-      <c r="M300" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B301" t="s">
         <v>21</v>
@@ -5949,71 +5982,35 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B302" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C302" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D302" t="s">
-        <v>16</v>
-      </c>
-      <c r="E302" t="s">
-        <v>17</v>
-      </c>
-      <c r="F302" t="s">
-        <v>15</v>
-      </c>
-      <c r="G302" t="s">
-        <v>16</v>
-      </c>
-      <c r="H302" t="s">
-        <v>18</v>
-      </c>
-      <c r="I302" t="s">
-        <v>15</v>
-      </c>
-      <c r="J302" t="s">
-        <v>16</v>
-      </c>
-      <c r="K302" t="s">
-        <v>19</v>
-      </c>
-      <c r="L302" t="s">
-        <v>15</v>
-      </c>
-      <c r="M302" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B303" t="s">
         <v>21</v>
       </c>
       <c r="C303" t="s">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c r="D303" t="s">
-        <v>190</v>
-      </c>
-      <c r="E303" t="s">
-        <v>352</v>
-      </c>
-      <c r="F303" t="s">
-        <v>189</v>
-      </c>
-      <c r="G303" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B304" t="s">
         <v>21</v>
@@ -6027,35 +6024,71 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B305" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C305" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D305" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="s">
+        <v>15</v>
+      </c>
+      <c r="G305" t="s">
+        <v>16</v>
+      </c>
+      <c r="H305" t="s">
+        <v>18</v>
+      </c>
+      <c r="I305" t="s">
+        <v>15</v>
+      </c>
+      <c r="J305" t="s">
+        <v>16</v>
+      </c>
+      <c r="K305" t="s">
+        <v>19</v>
+      </c>
+      <c r="L305" t="s">
+        <v>15</v>
+      </c>
+      <c r="M305" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B306" t="s">
         <v>21</v>
       </c>
       <c r="C306" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="D306" t="s">
-        <v>15</v>
+        <v>194</v>
+      </c>
+      <c r="E306" t="s">
+        <v>357</v>
+      </c>
+      <c r="F306" t="s">
+        <v>193</v>
+      </c>
+      <c r="G306" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B307" t="s">
         <v>21</v>
@@ -6069,13 +6102,13 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B308" t="s">
         <v>21</v>
       </c>
       <c r="C308" t="s">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="D308" t="s">
         <v>15</v>
@@ -6083,13 +6116,13 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B309" t="s">
         <v>21</v>
       </c>
       <c r="C309" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D309" t="s">
         <v>15</v>
@@ -6097,7 +6130,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B310" t="s">
         <v>21</v>
@@ -6111,7 +6144,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B311" t="s">
         <v>21</v>
@@ -6125,7 +6158,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B312" t="s">
         <v>21</v>
@@ -6139,7 +6172,7 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B313" t="s">
         <v>21</v>
@@ -6153,7 +6186,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B314" t="s">
         <v>21</v>
@@ -6167,7 +6200,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B315" t="s">
         <v>21</v>
@@ -6181,7 +6214,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B316" t="s">
         <v>21</v>
@@ -6195,30 +6228,21 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B317" t="s">
         <v>21</v>
       </c>
       <c r="C317" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D317" t="s">
-        <v>80</v>
-      </c>
-      <c r="E317" t="s">
-        <v>81</v>
-      </c>
-      <c r="F317" t="s">
-        <v>16</v>
-      </c>
-      <c r="G317" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B318" t="s">
         <v>21</v>
@@ -6232,7 +6256,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B319" t="s">
         <v>21</v>
@@ -6246,21 +6270,30 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B320" t="s">
         <v>21</v>
       </c>
       <c r="C320" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D320" t="s">
-        <v>15</v>
+        <v>80</v>
+      </c>
+      <c r="E320" t="s">
+        <v>81</v>
+      </c>
+      <c r="F320" t="s">
+        <v>16</v>
+      </c>
+      <c r="G320" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B321" t="s">
         <v>21</v>
@@ -6274,7 +6307,7 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B322" t="s">
         <v>21</v>
@@ -6288,7 +6321,7 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B323" t="s">
         <v>21</v>
@@ -6302,7 +6335,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B324" t="s">
         <v>21</v>
@@ -6316,13 +6349,13 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B325" t="s">
         <v>21</v>
       </c>
       <c r="C325" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D325" t="s">
         <v>15</v>
@@ -6330,36 +6363,27 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B326" t="s">
         <v>21</v>
       </c>
       <c r="C326" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D326" t="s">
-        <v>32</v>
-      </c>
-      <c r="E326" t="s">
-        <v>33</v>
-      </c>
-      <c r="F326" t="s">
-        <v>15</v>
-      </c>
-      <c r="G326" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B327" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="C327" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D327" t="s">
         <v>15</v>
@@ -6367,10 +6391,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B328" t="s">
-        <v>269</v>
+        <v>21</v>
       </c>
       <c r="C328" t="s">
         <v>15</v>
@@ -6381,13 +6405,13 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B329" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="C329" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D329" t="s">
         <v>15</v>
@@ -6395,27 +6419,36 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B330" t="s">
         <v>21</v>
       </c>
       <c r="C330" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D330" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="E330" t="s">
+        <v>33</v>
+      </c>
+      <c r="F330" t="s">
+        <v>15</v>
+      </c>
+      <c r="G330" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B331" t="s">
-        <v>21</v>
+        <v>275</v>
       </c>
       <c r="C331" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D331" t="s">
         <v>15</v>
@@ -6423,7 +6456,7 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B332" t="s">
         <v>21</v>
@@ -6437,15 +6470,57 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B333" t="s">
         <v>21</v>
       </c>
       <c r="C333" t="s">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="D333" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>385</v>
+      </c>
+      <c r="B334" t="s">
+        <v>21</v>
+      </c>
+      <c r="C334" t="s">
+        <v>22</v>
+      </c>
+      <c r="D334" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>386</v>
+      </c>
+      <c r="B335" t="s">
+        <v>21</v>
+      </c>
+      <c r="C335" t="s">
+        <v>22</v>
+      </c>
+      <c r="D335" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>387</v>
+      </c>
+      <c r="B336" t="s">
+        <v>21</v>
+      </c>
+      <c r="C336" t="s">
+        <v>180</v>
+      </c>
+      <c r="D336" t="s">
         <v>15</v>
       </c>
     </row>
